--- a/data/us-real-gdp-growth-qoq.xlsx
+++ b/data/us-real-gdp-growth-qoq.xlsx
@@ -1,77 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13B38F8-CB93-4501-9189-2CAF768D79B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{75E667AC-3173-4432-93F1-B245AAFC2FE4}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13758" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color rgb="FF1A1A1A"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,31 +64,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,428 +467,656 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E57201-413C-4FF1-993A-4F68634713F6}">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col width="8.9453125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.89453125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45717</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4" t="n">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="C3">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+      <c r="C4">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4" t="n">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="C5">
+        <f>(B5/B9-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+      <c r="C6">
+        <f>(B6/B10-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="C7">
+        <f>(B7/B11-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4" t="n">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="C8">
+        <f>(B8/B12-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B8" s="4">
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="B9" s="4" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B13-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="C10">
+        <f>(B10/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B10" s="4">
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="B11" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11">
+        <f>(B11/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B11" s="4">
-        <v>3.4000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="B12" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C12">
+        <f>(B12/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4" t="n">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="C13">
+        <f>(B13/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="C14">
+        <f>(B14/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="C15">
+        <f>(B15/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B15" s="4">
-        <v>7.3999999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="B16" s="4" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="C16">
+        <f>(B16/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B16" s="4">
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="B17" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C17">
+        <f>(B17/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4" t="n">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="C18">
+        <f>(B18/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B18" s="4">
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="B19" s="4" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="C19">
+        <f>(B19/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B19" s="4">
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="B20" s="4" t="n">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="C20">
+        <f>(B20/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B20" s="4">
-        <v>35.199999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="B21" s="4" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C21">
+        <f>(B21/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4" t="n">
         <v>-28.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="C22">
+        <f>(B22/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4" t="n">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="C23">
+        <f>(B23/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B23" s="4">
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
+      <c r="B24" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C24">
+        <f>(B24/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4" t="n">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="C25">
+        <f>(B25/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B25" s="4">
-        <v>3.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
+      <c r="B26" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C26">
+        <f>(B26/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4" t="n">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="C27">
+        <f>(B27/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
+      <c r="C28">
+        <f>(B28/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4" t="n">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="C29">
+        <f>(B29/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4" t="n">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
+      <c r="C30">
+        <f>(B30/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B30" s="4">
-        <v>3.3000000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="B31" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C31">
+        <f>(B31/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B31" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
+      <c r="B32" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C32">
+        <f>(B32/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4" t="n">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+      <c r="C33">
+        <f>(B33/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B33" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
+      <c r="B34" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C34">
+        <f>(B34/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B34" s="4">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+      <c r="B35" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C35">
+        <f>(B35/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
+      <c r="C36">
+        <f>(B36/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+      <c r="C37">
+        <f>(B37/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4" t="n">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
+      <c r="C38">
+        <f>(B38/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+      <c r="C39">
+        <f>(B39/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
+      <c r="C40">
+        <f>(B40/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4" t="n">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+      <c r="C41">
+        <f>(B41/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B41" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
+      <c r="B42" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C42">
+        <f>(B42/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4" t="n">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+      <c r="C43">
+        <f>(B43/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B43" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
+      <c r="B44" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C44">
+        <f>(B44/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+      <c r="C45">
+        <f>(B45/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4" t="n">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
+      <c r="C46">
+        <f>(B46/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B46" s="4">
-        <v>-1.0999999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+      <c r="B47" s="4" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C47">
+        <f>(B47/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4" t="n">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
+      <c r="C48">
+        <f>(B48/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4" t="n">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
+      <c r="C49">
+        <f>(B49/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
+      <c r="C50">
+        <f>(B50/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B50" s="4">
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
+      <c r="B51" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C51">
+        <f>(B51/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
+      <c r="C52">
+        <f>(B52/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53">
+        <f>(B53/B57-1)*100</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
